--- a/product.xlsx
+++ b/product.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="15000" tabRatio="500"/>
+    <workbookView windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tồn kho" sheetId="1" r:id="rId1"/>
@@ -2266,17 +2266,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2290,22 +2285,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2315,104 +2294,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2433,6 +2323,111 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2449,31 +2444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2491,13 +2480,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,13 +2534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,49 +2552,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2599,19 +2582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2623,7 +2600,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2634,30 +2629,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2691,6 +2662,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2708,10 +2694,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2734,143 +2718,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3197,7 +3192,7 @@
   <dimension ref="A1:J358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28571428571429" defaultRowHeight="12"/>
@@ -12534,7 +12529,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/product.xlsx
+++ b/product.xlsx
@@ -3192,7 +3192,7 @@
   <dimension ref="A1:J358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28571428571429" defaultRowHeight="12"/>
@@ -3563,7 +3563,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="1">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
